--- a/results.xlsx
+++ b/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/MMF/Summer/MMF2025 Risk Management Laboratory/Global_macro_portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CDA5DC5-5FAF-A243-9765-31765ED1009D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E1003-1303-8E41-B750-071A87A8C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7800" yWindow="500" windowWidth="28040" windowHeight="20200" xr2:uid="{53C99396-C751-1246-ABD4-284ECE8C07C8}"/>
+    <workbookView xWindow="19080" yWindow="920" windowWidth="28040" windowHeight="20160" xr2:uid="{53C99396-C751-1246-ABD4-284ECE8C07C8}"/>
   </bookViews>
   <sheets>
     <sheet name="backtest" sheetId="1" r:id="rId1"/>
@@ -419,7 +419,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>0.92820000000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>-1.0579000000000001</v>
+        <v>-0.23330000000000001</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
@@ -475,7 +475,7 @@
         <v>1.9363999999999999</v>
       </c>
       <c r="H4" s="1">
-        <v>-1.0232000000000001</v>
+        <v>-0.23430000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
@@ -486,7 +486,7 @@
         <v>-0.1019</v>
       </c>
       <c r="C5" s="1">
-        <v>-1.3025</v>
+        <v>-0.51149999999999995</v>
       </c>
       <c r="F5" t="s">
         <v>4</v>
@@ -495,7 +495,7 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>-1.0227999999999999</v>
+        <v>-0.24740000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -506,7 +506,7 @@
         <v>-4.8399999999999999E-2</v>
       </c>
       <c r="C6" s="1">
-        <v>-1.2302999999999999</v>
+        <v>-0.50109999999999999</v>
       </c>
       <c r="F6" t="s">
         <v>5</v>
@@ -515,7 +515,7 @@
         <v>1.9470000000000001</v>
       </c>
       <c r="H6" s="1">
-        <v>-1.0227999999999999</v>
+        <v>-0.24740000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
         <v>1.7138</v>
       </c>
       <c r="C10" s="1">
-        <v>-1.0530999999999999</v>
+        <v>-0.1401</v>
       </c>
       <c r="F10" t="s">
         <v>2</v>
@@ -554,7 +554,7 @@
         <v>1.9678</v>
       </c>
       <c r="H10" s="1">
-        <v>-1.0170999999999999</v>
+        <v>-0.23319999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -565,7 +565,7 @@
         <v>0.14410000000000001</v>
       </c>
       <c r="C11" s="1">
-        <v>-1.1966000000000001</v>
+        <v>-0.44800000000000001</v>
       </c>
       <c r="F11" t="s">
         <v>4</v>
@@ -574,7 +574,7 @@
         <v>1.9177999999999999</v>
       </c>
       <c r="H11" s="1">
-        <v>-1.0829</v>
+        <v>-0.33289999999999997</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
@@ -585,7 +585,7 @@
         <v>0.19689999999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>-1.1822999999999999</v>
+        <v>-0.44729999999999998</v>
       </c>
       <c r="F12" t="s">
         <v>5</v>
@@ -594,7 +594,7 @@
         <v>1.9177999999999999</v>
       </c>
       <c r="H12" s="1">
-        <v>-1.0829</v>
+        <v>-0.33289999999999997</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
@@ -624,7 +624,7 @@
         <v>2.0207999999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>-1.0527</v>
+        <v>-0.14269999999999999</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
@@ -633,7 +633,7 @@
         <v>2.0705</v>
       </c>
       <c r="H16" s="1">
-        <v>-1.0170999999999999</v>
+        <v>-0.22789999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -644,7 +644,7 @@
         <v>0.3231</v>
       </c>
       <c r="C17" s="1">
-        <v>-1.1806000000000001</v>
+        <v>-0.38590000000000002</v>
       </c>
       <c r="F17" t="s">
         <v>4</v>
@@ -653,7 +653,7 @@
         <v>1.7567999999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>-1.125</v>
+        <v>-0.36299999999999999</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -664,7 +664,7 @@
         <v>0.38140000000000002</v>
       </c>
       <c r="C18" s="1">
-        <v>-1.1671</v>
+        <v>-0.38340000000000002</v>
       </c>
       <c r="F18" t="s">
         <v>5</v>
@@ -673,7 +673,7 @@
         <v>1.7666999999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>-1.1173999999999999</v>
+        <v>-0.35520000000000002</v>
       </c>
     </row>
   </sheetData>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Desktop/MMF/Summer/MMF2025 Risk Management Laboratory/Global_macro_portfolio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{498E1003-1303-8E41-B750-071A87A8C2A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{508CFF05-6745-8C40-AF13-95E56FB3A87F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19080" yWindow="920" windowWidth="28040" windowHeight="20160" xr2:uid="{53C99396-C751-1246-ABD4-284ECE8C07C8}"/>
+    <workbookView xWindow="10960" yWindow="1340" windowWidth="28040" windowHeight="20160" xr2:uid="{53C99396-C751-1246-ABD4-284ECE8C07C8}"/>
   </bookViews>
   <sheets>
     <sheet name="backtest" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="18">
   <si>
     <t>cutoff = 10</t>
   </si>
@@ -51,9 +51,6 @@
     <t>Risk parity</t>
   </si>
   <si>
-    <t>MVO</t>
-  </si>
-  <si>
     <t>Backtest (2011.1.1 - 2016. 3.31) monthly rebalance</t>
   </si>
   <si>
@@ -64,6 +61,33 @@
   </si>
   <si>
     <t>cutoff = 20</t>
+  </si>
+  <si>
+    <t>cutoff = 10, 0 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 15, 0 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 20, 0 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 10, 10 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 15, 10 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 20, 10 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 10, 20 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 15, 20 leverage option</t>
+  </si>
+  <si>
+    <t>cutoff = 20, 20 leverage option</t>
   </si>
 </sst>
 </file>
@@ -416,35 +440,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3FA9DD4-4B91-214F-8E16-8E0C30636593}">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:P15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" customWidth="1"/>
+    <col min="10" max="10" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>1</v>
       </c>
@@ -457,33 +494,63 @@
       <c r="H3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="K3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.92820000000000003</v>
+        <v>0.89829999999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>-0.23330000000000001</v>
+        <v>-0.2334</v>
       </c>
       <c r="F4" t="s">
         <v>2</v>
       </c>
       <c r="G4">
-        <v>1.9363999999999999</v>
+        <v>1.9470000000000001</v>
       </c>
       <c r="H4" s="1">
         <v>-0.23430000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>1.6004</v>
+      </c>
+      <c r="L4" s="1">
+        <v>-0.54120000000000001</v>
+      </c>
+      <c r="N4" t="s">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>1.2750999999999999</v>
+      </c>
+      <c r="P4" s="1">
+        <v>-0.746</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>-0.1019</v>
+        <v>-0.18840000000000001</v>
       </c>
       <c r="C5" s="1">
         <v>-0.51149999999999995</v>
@@ -492,188 +559,260 @@
         <v>4</v>
       </c>
       <c r="G5">
-        <v>1.9470000000000001</v>
+        <v>1.9366000000000001</v>
       </c>
       <c r="H5" s="1">
         <v>-0.24740000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>-4.8399999999999999E-2</v>
-      </c>
-      <c r="C6" s="1">
-        <v>-0.50109999999999999</v>
-      </c>
-      <c r="F6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6">
-        <v>1.9470000000000001</v>
-      </c>
-      <c r="H6" s="1">
-        <v>-0.24740000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5">
+        <v>1.6624000000000001</v>
+      </c>
+      <c r="L5" s="1">
+        <v>-0.5383</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>1.3192999999999999</v>
+      </c>
+      <c r="P5" s="1">
+        <v>-0.74329999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>10</v>
+      </c>
+      <c r="J7" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>3</v>
+      </c>
+      <c r="O8" t="s">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C9" s="1">
+        <v>-0.14019999999999999</v>
+      </c>
+      <c r="F9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>1.9618</v>
+      </c>
+      <c r="H9" s="1">
+        <v>-0.23369999999999999</v>
+      </c>
+      <c r="J9" t="s">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1.5585</v>
+      </c>
+      <c r="L9" s="1">
+        <v>-0.54200000000000004</v>
+      </c>
+      <c r="N9" t="s">
+        <v>2</v>
+      </c>
+      <c r="O9">
+        <v>1.246</v>
+      </c>
+      <c r="P9" s="1">
+        <v>-0.74509999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>-0.44800000000000001</v>
+      </c>
+      <c r="F10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>1.9177999999999999</v>
+      </c>
+      <c r="H10" s="1">
+        <v>-0.33289999999999997</v>
+      </c>
+      <c r="J10" t="s">
+        <v>4</v>
+      </c>
+      <c r="K10">
+        <v>1.6382000000000001</v>
+      </c>
+      <c r="L10" s="1">
+        <v>-0.58379999999999999</v>
+      </c>
+      <c r="N10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <v>1.3044</v>
+      </c>
+      <c r="P10" s="1">
+        <v>-0.77729999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10">
-        <v>1.7138</v>
-      </c>
-      <c r="C10" s="1">
-        <v>-0.1401</v>
-      </c>
-      <c r="F10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G10">
-        <v>1.9678</v>
-      </c>
-      <c r="H10" s="1">
-        <v>-0.23319999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>4</v>
-      </c>
-      <c r="B11">
-        <v>0.14410000000000001</v>
-      </c>
-      <c r="C11" s="1">
-        <v>-0.44800000000000001</v>
-      </c>
-      <c r="F11" t="s">
-        <v>4</v>
-      </c>
-      <c r="G11">
-        <v>1.9177999999999999</v>
-      </c>
-      <c r="H11" s="1">
-        <v>-0.33289999999999997</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>0.19689999999999999</v>
-      </c>
-      <c r="C12" s="1">
-        <v>-0.44729999999999998</v>
-      </c>
       <c r="F12" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12">
-        <v>1.9177999999999999</v>
-      </c>
-      <c r="H12" s="1">
-        <v>-0.33289999999999997</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>3</v>
+      </c>
+      <c r="K13" t="s">
+        <v>1</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" t="s">
-        <v>1</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16">
-        <v>2.0207999999999999</v>
-      </c>
-      <c r="C16" s="1">
-        <v>-0.14269999999999999</v>
-      </c>
-      <c r="F16" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16">
-        <v>2.0705</v>
-      </c>
-      <c r="H16" s="1">
-        <v>-0.22789999999999999</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>4</v>
-      </c>
-      <c r="B17">
-        <v>0.3231</v>
-      </c>
-      <c r="C17" s="1">
-        <v>-0.38590000000000002</v>
-      </c>
-      <c r="F17" t="s">
-        <v>4</v>
-      </c>
-      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>2.0457999999999998</v>
+      </c>
+      <c r="C14" s="1">
+        <v>-0.14280000000000001</v>
+      </c>
+      <c r="F14" t="s">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>2.0796999999999999</v>
+      </c>
+      <c r="H14" s="1">
+        <v>-0.2273</v>
+      </c>
+      <c r="J14" t="s">
+        <v>2</v>
+      </c>
+      <c r="K14">
+        <v>1.5793999999999999</v>
+      </c>
+      <c r="L14" s="1">
+        <v>-0.55410000000000004</v>
+      </c>
+      <c r="N14" t="s">
+        <v>2</v>
+      </c>
+      <c r="O14">
+        <v>1.2545999999999999</v>
+      </c>
+      <c r="P14" s="1">
+        <v>-0.76070000000000004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>0.27679999999999999</v>
+      </c>
+      <c r="C15" s="1">
+        <v>-0.37890000000000001</v>
+      </c>
+      <c r="F15" t="s">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <v>1.7567999999999999</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H15" s="1">
         <v>-0.36299999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18">
-        <v>0.38140000000000002</v>
-      </c>
-      <c r="C18" s="1">
-        <v>-0.38340000000000002</v>
-      </c>
-      <c r="F18" t="s">
-        <v>5</v>
-      </c>
-      <c r="G18">
-        <v>1.7666999999999999</v>
-      </c>
-      <c r="H18" s="1">
-        <v>-0.35520000000000002</v>
+      <c r="J15" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>1.5697000000000001</v>
+      </c>
+      <c r="L15" s="1">
+        <v>-0.58050000000000002</v>
+      </c>
+      <c r="N15" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <v>1.2682</v>
+      </c>
+      <c r="P15" s="1">
+        <v>-0.77969999999999995</v>
       </c>
     </row>
   </sheetData>
